--- a/Datos/Database by set/Set with text box/Xlsx sets/Welcome Deck 2016 (W16).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Welcome Deck 2016 (W16).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A83"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,574 +444,112 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Aegis Angel</t>
+          <t>('Aegis Angel', ['{4}{W}{W}', 'Creature — Angel', 'Flying (This creature can’t be blocked except by creatures with flying or reach.)', 'When Aegis Angel enters the battlefield, another target permanent gains indestructible for as long as you control Aegis Angel. (Effects that say “destroy” don’t destroy it. A creature with indestructible can’t be destroyed by damage.)', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{4}{W}{W}</t>
+          <t>('Air Servant', ['{4}{U}', 'Creature — Elemental', 'Flying', '{2}{U}: Tap target creature with flying.', '4/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Angel</t>
+          <t>('Borderland Marauder', ['{1}{R}', 'Creature — Human Warrior', 'Whenever Borderland Marauder attacks, it gets +2/+0 until end of turn.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Flying (This creature can’t be blocked except by creatures with flying or reach.)</t>
+          <t>('Cone of Flame', ['{3}{R}{R}', 'Sorcery', 'Cone of Flame deals 1 damage to any target, 2 damage to another target, and 3 damage to a third target.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>When Aegis Angel enters the battlefield, another target permanent gains indestructible for as long as you control Aegis Angel. (Effects that say “destroy” don’t destroy it. A creature with indestructible can’t be destroyed by damage.)</t>
+          <t>('Disperse', ['{1}{U}', 'Instant', 'Return target nonland permanent to its owner’s hand.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5/5</t>
+          <t>('Incremental Growth', ['{3}{G}{G}', 'Sorcery', 'Put a +1/+1 counter on target creature, two +1/+1 counters on another target creature, and three +1/+1 counters on a third target creature.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Air Servant</t>
+          <t>('Marked by Honor', ['{3}{W}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +2/+2 and has vigilance. (Attacking doesn’t cause it to tap.)'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{4}{U}</t>
+          <t>('Mind Rot', ['{2}{B}', 'Sorcery', 'Target player discards two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Creature — Elemental</t>
+          <t>('Nightmare', ['{5}{B}', 'Creature — Nightmare Horse', 'Flying (This creature can’t be blocked except by creatures with flying or reach.)', 'Nightmare’s power and toughness are each equal to the number of Swamps you control.', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Flying</t>
+          <t>('Oakenform', ['{2}{G}', 'Enchantment — Aura', 'Enchant creature', 'Enchanted creature gets +3/+3.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{2}{U}: Tap target creature with flying.</t>
+          <t>('Sengir Vampire', ['{3}{B}{B}', 'Creature — Vampire', 'Flying (This creature can’t be blocked except by creatures with flying or reach.)', 'Whenever a creature dealt damage by Sengir Vampire this turn dies, put a +1/+1 counter on Sengir Vampire.', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4/3</t>
+          <t>('Serra Angel', ['{3}{W}{W}', 'Creature — Angel', 'Flying, vigilance', '4/4'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Borderland Marauder</t>
+          <t>('Shivan Dragon', ['{4}{R}{R}', 'Creature — Dragon', 'Flying (This creature can’t be blocked except by creatures with flying or reach.)', '{R}: Shivan Dragon gets +1/+0 until end of turn.', '5/5'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{1}{R}</t>
+          <t>('Soul of the Harvest', ['{4}{G}{G}', 'Creature — Elemental', 'Trample', 'Whenever another nontoken creature enters the battlefield under your control, you may draw a card.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Creature — Human Warrior</t>
+          <t>('Sphinx of Magosi', ['{3}{U}{U}{U}', 'Creature — Sphinx', 'Flying', '{2}{U}: Draw a card, then put a +1/+1 counter on Sphinx of Magosi.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Whenever Borderland Marauder attacks, it gets +2/+0 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Cone of Flame</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>{3}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Cone of Flame deals 1 damage to any target, 2 damage to another target, and 3 damage to a third target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Disperse</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Return target nonland permanent to its owner’s hand.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Incremental Growth</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{3}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Put a +1/+1 counter on target creature, two +1/+1 counters on another target creature, and three +1/+1 counters on a third target creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Marked by Honor</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>{3}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Enchantment — Aura</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Enchant creature</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Enchanted creature gets +2/+2 and has vigilance. (Attacking doesn’t cause it to tap.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Mind Rot</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>{2}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Sorcery</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Target player discards two cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Nightmare</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>{5}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Creature — Nightmare Horse</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Flying (This creature can’t be blocked except by creatures with flying or reach.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Nightmare’s power and toughness are each equal to the number of Swamps you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Oakenform</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>{2}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Enchantment — Aura</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Enchant creature</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Enchanted creature gets +3/+3.</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Sengir Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>{3}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Creature — Vampire</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Flying (This creature can’t be blocked except by creatures with flying or reach.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Whenever a creature dealt damage by Sengir Vampire this turn dies, put a +1/+1 counter on Sengir Vampire.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Serra Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>{3}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Creature — Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Flying, vigilance</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>4/4</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Shivan Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>{4}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Flying (This creature can’t be blocked except by creatures with flying or reach.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>{R}: Shivan Dragon gets +1/+0 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>5/5</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Soul of the Harvest</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>{4}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Creature — Elemental</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Whenever another nontoken creature enters the battlefield under your control, you may draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Sphinx of Magosi</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>{3}{U}{U}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Creature — Sphinx</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>{2}{U}: Draw a card, then put a +1/+1 counter on Sphinx of Magosi.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Walking Corpse</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Creature — Zombie</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2/2</t>
+          <t>('Walking Corpse', ['{1}{B}', 'Creature — Zombie', '2/2'])</t>
         </is>
       </c>
     </row>
